--- a/data/trans_dic/P69$agotado-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P69$agotado-Provincia-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2615827319641517</v>
+        <v>0.2412600714344369</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.152966063531521</v>
+        <v>0.1692703830665652</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.3017052635368176</v>
+        <v>0.2979167576598458</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.03695616359298633</v>
+        <v>0.05081233539207483</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1940377796685001</v>
+        <v>0.2132615866222404</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.3789705019591408</v>
+        <v>0.397032281962806</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.3513754653716323</v>
+        <v>0.3441006331051112</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.1233386148460053</v>
+        <v>0.1251409685665778</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2758246862986387</v>
+        <v>0.2901353768866633</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.3098908242675132</v>
+        <v>0.3185185782932994</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.3557739980916332</v>
+        <v>0.3565656893805113</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.1008405759499887</v>
+        <v>0.09850214042901938</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5810433442988699</v>
+        <v>0.5623656035672239</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.4746340764842004</v>
+        <v>0.4775537004015798</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.581937924139627</v>
+        <v>0.589416727003794</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.351833034031091</v>
+        <v>0.3557418476366445</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.5817354614869211</v>
+        <v>0.6066459708378598</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.7748058425925972</v>
+        <v>0.780925692007627</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.6509760300001947</v>
+        <v>0.6540932217052232</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.444166278711512</v>
+        <v>0.4591735684041962</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.5216815928219078</v>
+        <v>0.5373827840652405</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.5594718827072244</v>
+        <v>0.5655527341669455</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.5578992284233746</v>
+        <v>0.559599433535122</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3265754944178224</v>
+        <v>0.3218937581422894</v>
       </c>
     </row>
     <row r="7">
@@ -821,7 +821,7 @@
         <v>0.6044190356058415</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>0.4536561487533872</v>
+        <v>0.4536561487533871</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>0.3019320283280867</v>
@@ -833,7 +833,7 @@
         <v>0.4800037417948745</v>
       </c>
       <c r="N7" s="5" t="n">
-        <v>0.4373709756256027</v>
+        <v>0.4373709756256026</v>
       </c>
     </row>
     <row r="8">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1964961625880575</v>
+        <v>0.1931971488882053</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2061668452870344</v>
+        <v>0.2146366533279624</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3147785708487253</v>
+        <v>0.3081880554900579</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.2503470718624987</v>
+        <v>0.2350118427398639</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.1514833247922606</v>
+        <v>0.1514160475434618</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.1092583003935524</v>
+        <v>0.1067165636021642</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.440868344201774</v>
+        <v>0.4402248650049964</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3276935454756111</v>
+        <v>0.3226718389948108</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.217183785711672</v>
+        <v>0.2103791895081623</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.1876407195412865</v>
+        <v>0.1956942084635156</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.3901092405108388</v>
+        <v>0.389224132488237</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3281630785216807</v>
+        <v>0.3182553954308932</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.423845589454833</v>
+        <v>0.4373660702414647</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.4656364179532191</v>
+        <v>0.4650265731226098</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.5269346503442769</v>
+        <v>0.5217101153896297</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.6144599487093544</v>
+        <v>0.6002973725503385</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.4827653328818775</v>
+        <v>0.4750551687623428</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.4040341724055405</v>
+        <v>0.4338558680415154</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.7512553849226264</v>
+        <v>0.7227456122985402</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.5894892002191194</v>
+        <v>0.5949394652943629</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.4069127702169802</v>
+        <v>0.4076855657334079</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.3938366655132524</v>
+        <v>0.3900021161440216</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.5711489042338638</v>
+        <v>0.574360012582581</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.5486053969231017</v>
+        <v>0.5559057195738283</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1942862247012427</v>
+        <v>0.2053119523605082</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.03649824612295864</v>
+        <v>0.03659061332623093</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.08689192275924119</v>
+        <v>0.08444633827521335</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.0363189181915799</v>
+        <v>0.04927723005363593</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.04469475095459749</v>
+        <v>0.04480569604766981</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.1086061503520648</v>
+        <v>0.1086359805198539</v>
       </c>
       <c r="I11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.1807597613710175</v>
+        <v>0.1749492869198209</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.1680554506189935</v>
+        <v>0.1591405524719725</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.1082125744711431</v>
+        <v>0.1085829274519022</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.08375984787315933</v>
+        <v>0.0829091384211571</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.1242748680976731</v>
+        <v>0.1259206452223991</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.5098090477738233</v>
+        <v>0.5268050420562815</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3323666041105163</v>
+        <v>0.3300690202879968</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.4459755040852267</v>
+        <v>0.406752711628927</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.2020272225345269</v>
+        <v>0.2224169575898346</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3194070102143161</v>
+        <v>0.3612827242814484</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.5248238605335399</v>
+        <v>0.5262393341712078</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3845685687999358</v>
+        <v>0.4330783328011703</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3956211320534944</v>
+        <v>0.391555196904794</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.4084795754210687</v>
+        <v>0.3913714849816208</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3200446193561164</v>
+        <v>0.3402125202701139</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3449855612464749</v>
+        <v>0.3567591545645635</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.2657690489491832</v>
+        <v>0.2647707204249027</v>
       </c>
     </row>
     <row r="13">
@@ -1093,7 +1093,7 @@
         <v>0.4872706518350077</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>0.6154964390870488</v>
+        <v>0.6154964390870489</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>0.180430890177705</v>
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1020613634465355</v>
+        <v>0.1078175280015442</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1413446787039861</v>
+        <v>0.1492840353596414</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2979455805407814</v>
+        <v>0.3118753917552942</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3540876076539383</v>
+        <v>0.3721190249839358</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.04154053886010453</v>
+        <v>0.04199505769398136</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2539568867300664</v>
+        <v>0.2721563826359753</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.2901373215938153</v>
+        <v>0.3213736580620291</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.4873778432568802</v>
+        <v>0.4784543406697123</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.1069295518068601</v>
+        <v>0.1010530690698951</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.2388217243967706</v>
+        <v>0.2298091924435077</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3751548086685101</v>
+        <v>0.3633828728125096</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.4672802520728711</v>
+        <v>0.4633724502680618</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.3371709506332385</v>
+        <v>0.3322101931769608</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.438826728494456</v>
+        <v>0.4373407252445183</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.6754897003215964</v>
+        <v>0.6567688287023086</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.7169083553589075</v>
+        <v>0.7349092640975815</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.3325697531102156</v>
+        <v>0.3262094684501083</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.6430651228184939</v>
+        <v>0.6536263502038949</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.673168950704179</v>
+        <v>0.675222199195177</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.7444565479970838</v>
+        <v>0.739966570480066</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.2932783018241624</v>
+        <v>0.2985394381128684</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.4693954403487107</v>
+        <v>0.4687388241490896</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.6265968326734006</v>
+        <v>0.6188296236239218</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.6903117939792093</v>
+        <v>0.6825819003837494</v>
       </c>
     </row>
     <row r="16">
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1251413615623695</v>
+        <v>0.1527548478009892</v>
       </c>
       <c r="D17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.2588976541349288</v>
+        <v>0.2400156129789498</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.0345820566783793</v>
+        <v>0.03594495381316511</v>
       </c>
       <c r="G17" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.08011077864887893</v>
+        <v>0.07980704691733187</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.1596080569453173</v>
+        <v>0.1607613357271972</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.1299663285251161</v>
+        <v>0.1158399561774181</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.1573886780381054</v>
+        <v>0.1581049231189368</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.06947882546514271</v>
+        <v>0.06656548822078272</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3113607640689275</v>
+        <v>0.2907524115967635</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.1019515024092779</v>
+        <v>0.1077178073824412</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.522959116954255</v>
+        <v>0.5354445321487065</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3058990450987859</v>
+        <v>0.3222962940736744</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.7938281088112801</v>
+        <v>0.7838938153081842</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3137821955817422</v>
+        <v>0.3244031309175981</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.7222193202375783</v>
+        <v>0.7218265993191517</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.6850428784497593</v>
+        <v>0.6935571311907437</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.8603156239909179</v>
+        <v>0.8636157935358776</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.5025516674353467</v>
+        <v>0.4654061327823081</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.5148838340616928</v>
+        <v>0.4704653880886767</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3806421655289344</v>
+        <v>0.3550295314005764</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.7689825980045107</v>
+        <v>0.7492925634093364</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3131474494991019</v>
+        <v>0.3218958562629822</v>
       </c>
     </row>
     <row r="19">
@@ -1388,40 +1388,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.2737501204298261</v>
+        <v>0.2759810561242226</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.08656356120657792</v>
+        <v>0.08429490624471109</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.2308782758026389</v>
+        <v>0.2250687113598008</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.1319725088360629</v>
+        <v>0.1295989813207795</v>
       </c>
       <c r="G20" s="5" t="n">
         <v>0</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.06539549364391299</v>
+        <v>0.06299254844001369</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.1487774149209655</v>
+        <v>0.1494127806156148</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.1755680134821652</v>
+        <v>0.1732681125812093</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.2217513167224794</v>
+        <v>0.2157131446239722</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>0.1034986812727979</v>
+        <v>0.1124396453250591</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>0.2544522637286541</v>
+        <v>0.2440831079074008</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>0.1911018225526357</v>
+        <v>0.1916843142130251</v>
       </c>
     </row>
     <row r="21">
@@ -1432,40 +1432,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.5918745174788046</v>
+        <v>0.5887618872497458</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.3365911484004044</v>
+        <v>0.3336300021703461</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.6344269428631437</v>
+        <v>0.654908321438875</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.4174037535438597</v>
+        <v>0.3953197511130888</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.3185653978778272</v>
+        <v>0.303544855280465</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.5334802116875382</v>
+        <v>0.5315340218373932</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.8806754464438905</v>
+        <v>0.8861137491798372</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.4341031940989828</v>
+        <v>0.4360621317205298</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.483267012917643</v>
+        <v>0.4685990164848474</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>0.3111431606976728</v>
+        <v>0.333243088353548</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>0.622596840593669</v>
+        <v>0.6180406657952437</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>0.3719035848282349</v>
+        <v>0.3806354217311753</v>
       </c>
     </row>
     <row r="22">
@@ -1501,7 +1501,7 @@
         <v>0.3147180539068214</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>0.3999542038386164</v>
+        <v>0.3999542038386166</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>0.2908264705891314</v>
@@ -1513,7 +1513,7 @@
         <v>0.31592331154519</v>
       </c>
       <c r="N22" s="5" t="n">
-        <v>0.3209270549124373</v>
+        <v>0.3209270549124374</v>
       </c>
     </row>
     <row r="23">
@@ -1524,40 +1524,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.1964643154789148</v>
+        <v>0.1959665977580372</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.07537288728623716</v>
+        <v>0.07199786255382566</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.2142619574651853</v>
+        <v>0.2141177006875214</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.1425194583421374</v>
+        <v>0.1483596961080267</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.1754334584945112</v>
+        <v>0.1783772871010705</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.1483257121398528</v>
+        <v>0.1294513830941879</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.1914684417235089</v>
+        <v>0.196632330906866</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.3059560760258606</v>
+        <v>0.3043205832933437</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2132642629437326</v>
+        <v>0.2144104462023421</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>0.1320595320330167</v>
+        <v>0.1331352446178001</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>0.2382980074913942</v>
+        <v>0.2418872470333952</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>0.2495790854761689</v>
+        <v>0.2537402211097445</v>
       </c>
     </row>
     <row r="24">
@@ -1568,40 +1568,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.3944757885938976</v>
+        <v>0.3860980714362685</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.2840342032391364</v>
+        <v>0.2694684537625074</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.439850022219242</v>
+        <v>0.4305923045740229</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.371111338459771</v>
+        <v>0.3705764997484024</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.4499320685805905</v>
+        <v>0.4549245380988175</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.4109697587916202</v>
+        <v>0.3932163061806579</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.4444298104863804</v>
+        <v>0.4501790426719551</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.4953700808754853</v>
+        <v>0.5004690661567396</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.3772792551930899</v>
+        <v>0.3757484945327963</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>0.2960894687712531</v>
+        <v>0.2937451548127831</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>0.41094909816081</v>
+        <v>0.4111367846485559</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>0.3949917086249954</v>
+        <v>0.3977745790099076</v>
       </c>
     </row>
     <row r="25">
@@ -1625,7 +1625,7 @@
         <v>0.3519383638853731</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>0.7120167115076934</v>
+        <v>0.7120167115076932</v>
       </c>
       <c r="G25" s="5" t="n">
         <v>0.4933442469562261</v>
@@ -1660,40 +1660,40 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.2370232219425387</v>
+        <v>0.2439812116122645</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.1892161352331102</v>
+        <v>0.2003346695859254</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.2114347999720036</v>
+        <v>0.2141613025640869</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.5624172137754065</v>
+        <v>0.5703316320730318</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.3607686639267815</v>
+        <v>0.3490787704616065</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.1969137162714542</v>
+        <v>0.1948734436119937</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.04481884573897663</v>
+        <v>0.04520685624607559</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.4168118755920573</v>
+        <v>0.4284287868217468</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.3067126549546669</v>
+        <v>0.3037059476160461</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>0.2304638971932231</v>
+        <v>0.2306620518756603</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>0.1838313864925526</v>
+        <v>0.1833563198303624</v>
       </c>
       <c r="N26" s="5" t="n">
-        <v>0.5408146977747114</v>
+        <v>0.5513890792667738</v>
       </c>
     </row>
     <row r="27">
@@ -1704,40 +1704,40 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.4153121513152909</v>
+        <v>0.4316332100444475</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.4647303730236686</v>
+        <v>0.4858690149820167</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.5279572538966284</v>
+        <v>0.5287101145574022</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.8135511155440383</v>
+        <v>0.8104502544437274</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.6465198285057232</v>
+        <v>0.6359989098783765</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.5574556407954899</v>
+        <v>0.5630064564361146</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.4222042154296871</v>
+        <v>0.4293861067290157</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.6641199078141781</v>
+        <v>0.6671396568484267</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.4585163364098624</v>
+        <v>0.4563699194079243</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>0.4628520477412564</v>
+        <v>0.4558259955285996</v>
       </c>
       <c r="M27" s="5" t="n">
-        <v>0.4279665377100281</v>
+        <v>0.415031202845509</v>
       </c>
       <c r="N27" s="5" t="n">
-        <v>0.7128307054645849</v>
+        <v>0.7132975981116227</v>
       </c>
     </row>
     <row r="28">
@@ -1796,40 +1796,40 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.2729994480930364</v>
+        <v>0.2732959653132987</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.1949604451316194</v>
+        <v>0.1904172104436525</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.3345286104487488</v>
+        <v>0.3388347072307031</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.3125884798442997</v>
+        <v>0.3154996244042568</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>0.2499826198199568</v>
+        <v>0.2491175096472877</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>0.2873488714486765</v>
+        <v>0.2734924017423629</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.3471657890681583</v>
+        <v>0.3479022951737886</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>0.373950687187419</v>
+        <v>0.3803615760881017</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>0.2783337553679417</v>
+        <v>0.2764930752277935</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>0.2403286832602875</v>
+        <v>0.2436748400029018</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>0.3599112274233274</v>
+        <v>0.3569312494696423</v>
       </c>
       <c r="N29" s="5" t="n">
-        <v>0.353192977467069</v>
+        <v>0.3564550804201865</v>
       </c>
     </row>
     <row r="30">
@@ -1840,40 +1840,40 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.3623789901640502</v>
+        <v>0.3624026539284253</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.2850212896858084</v>
+        <v>0.2863911516959972</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.4472781426794449</v>
+        <v>0.4397335973822942</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>0.4285503202460889</v>
+        <v>0.4279347521826236</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>0.3751146895309611</v>
+        <v>0.3702513128093003</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>0.422472470837996</v>
+        <v>0.4139717717412385</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>0.4851958805437624</v>
+        <v>0.4810040163889165</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>0.4730438978071196</v>
+        <v>0.4780508569766415</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>0.3503569665684023</v>
+        <v>0.3537740996175125</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>0.3237690406722139</v>
+        <v>0.3235836307958318</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>0.442823257143179</v>
+        <v>0.439856719785752</v>
       </c>
       <c r="N30" s="5" t="n">
-        <v>0.4254943478501888</v>
+        <v>0.4320637545183581</v>
       </c>
     </row>
     <row r="31">
@@ -2148,40 +2148,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>11207</v>
+        <v>10337</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>6041</v>
+        <v>6685</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>17106</v>
+        <v>16891</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>915</v>
+        <v>1259</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>5553</v>
+        <v>6103</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>11424</v>
+        <v>11969</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>14366</v>
+        <v>14068</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>1999</v>
+        <v>2028</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>19711</v>
+        <v>20734</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>21580</v>
+        <v>22181</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>34717</v>
+        <v>34794</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>4132</v>
+        <v>4036</v>
       </c>
     </row>
     <row r="7">
@@ -2192,40 +2192,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>24894</v>
+        <v>24094</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>18745</v>
+        <v>18861</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>32994</v>
+        <v>33418</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>8715</v>
+        <v>8812</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>16649</v>
+        <v>17362</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>23357</v>
+        <v>23541</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>26615</v>
+        <v>26742</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>7198</v>
+        <v>7441</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>37281</v>
+        <v>38403</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>38961</v>
+        <v>39385</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>54440</v>
+        <v>54606</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>13382</v>
+        <v>13190</v>
       </c>
     </row>
     <row r="8">
@@ -2328,40 +2328,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>14226</v>
+        <v>13987</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>11667</v>
+        <v>12146</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>26059</v>
+        <v>25514</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>12018</v>
+        <v>11282</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>4952</v>
+        <v>4949</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>3749</v>
+        <v>3662</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>18824</v>
+        <v>18796</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>15046</v>
+        <v>14815</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>22823</v>
+        <v>22107</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>17057</v>
+        <v>17790</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>48952</v>
+        <v>48841</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>30821</v>
+        <v>29891</v>
       </c>
     </row>
     <row r="11">
@@ -2372,40 +2372,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>30685</v>
+        <v>31664</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>26350</v>
+        <v>26316</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>43623</v>
+        <v>43190</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>29498</v>
+        <v>28818</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>15781</v>
+        <v>15529</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>13864</v>
+        <v>14888</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>32076</v>
+        <v>30859</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>27066</v>
+        <v>27316</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>42760</v>
+        <v>42841</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>35802</v>
+        <v>35453</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>71669</v>
+        <v>72072</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>51526</v>
+        <v>52211</v>
       </c>
     </row>
     <row r="12">
@@ -2508,19 +2508,19 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>7114</v>
+        <v>7517</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>924</v>
+        <v>926</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>1847</v>
+        <v>1795</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>1778</v>
+        <v>2412</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>971</v>
+        <v>973</v>
       </c>
       <c r="H14" s="6" t="n">
         <v>1948</v>
@@ -2529,19 +2529,19 @@
         <v>0</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>8283</v>
+        <v>8017</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>9804</v>
+        <v>9284</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>4679</v>
+        <v>4695</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>2827</v>
+        <v>2799</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>11777</v>
+        <v>11933</v>
       </c>
     </row>
     <row r="15">
@@ -2552,40 +2552,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>18667</v>
+        <v>19289</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>8411</v>
+        <v>8352</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>9479</v>
+        <v>8645</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>9888</v>
+        <v>10886</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>6939</v>
+        <v>7849</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>9413</v>
+        <v>9438</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>4807</v>
+        <v>5414</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>18129</v>
+        <v>17943</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>23830</v>
+        <v>22832</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>13839</v>
+        <v>14711</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>11645</v>
+        <v>12042</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>25186</v>
+        <v>25092</v>
       </c>
     </row>
     <row r="16">
@@ -2688,40 +2688,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>5953</v>
+        <v>6288</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>6341</v>
+        <v>6697</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>9673</v>
+        <v>10125</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>19180</v>
+        <v>20156</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>943</v>
+        <v>954</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>7501</v>
+        <v>8038</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>8685</v>
+        <v>9620</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>25759</v>
+        <v>25288</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>8664</v>
+        <v>8188</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>17767</v>
+        <v>17097</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>23410</v>
+        <v>22675</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>50008</v>
+        <v>49590</v>
       </c>
     </row>
     <row r="19">
@@ -2732,40 +2732,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>19665</v>
+        <v>19375</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>19686</v>
+        <v>19619</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>21930</v>
+        <v>21322</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>38832</v>
+        <v>39807</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>7551</v>
+        <v>7407</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>18993</v>
+        <v>19305</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>20151</v>
+        <v>20213</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>39347</v>
+        <v>39109</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>23764</v>
+        <v>24190</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>34921</v>
+        <v>34872</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>39100</v>
+        <v>38615</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>73876</v>
+        <v>73049</v>
       </c>
     </row>
     <row r="20">
@@ -2868,40 +2868,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>2872</v>
+        <v>3506</v>
       </c>
       <c r="D22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>3850</v>
+        <v>3569</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>724</v>
+        <v>752</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>934</v>
+        <v>931</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>921</v>
+        <v>928</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1717</v>
+        <v>1530</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>4710</v>
+        <v>4731</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>1861</v>
+        <v>1783</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>6427</v>
+        <v>6001</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>3480</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="23">
@@ -2912,40 +2912,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>12004</v>
+        <v>12291</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>4627</v>
+        <v>4875</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>11804</v>
+        <v>11657</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>6566</v>
+        <v>6788</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>5034</v>
+        <v>5031</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>7988</v>
+        <v>8088</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>4965</v>
+        <v>4984</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>6639</v>
+        <v>6148</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>15408</v>
+        <v>14079</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>10197</v>
+        <v>9511</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>15873</v>
+        <v>15466</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>10690</v>
+        <v>10989</v>
       </c>
     </row>
     <row r="24">
@@ -3048,40 +3048,40 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>11445</v>
+        <v>11539</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>3755</v>
+        <v>3657</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>5180</v>
+        <v>5049</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>4338</v>
+        <v>4260</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>993</v>
+        <v>956</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>1105</v>
+        <v>1110</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>5289</v>
+        <v>5220</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>12397</v>
+        <v>12059</v>
       </c>
       <c r="L26" s="6" t="n">
-        <v>6061</v>
+        <v>6585</v>
       </c>
       <c r="M26" s="6" t="n">
-        <v>7598</v>
+        <v>7288</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>12038</v>
+        <v>12075</v>
       </c>
     </row>
     <row r="27">
@@ -3092,40 +3092,40 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>24746</v>
+        <v>24616</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>14601</v>
+        <v>14473</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>14233</v>
+        <v>14692</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>13719</v>
+        <v>12993</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>4490</v>
+        <v>4278</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>8100</v>
+        <v>8071</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>6541</v>
+        <v>6581</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>13077</v>
+        <v>13136</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>27016</v>
+        <v>26196</v>
       </c>
       <c r="L27" s="6" t="n">
-        <v>18222</v>
+        <v>19516</v>
       </c>
       <c r="M27" s="6" t="n">
-        <v>18591</v>
+        <v>18455</v>
       </c>
       <c r="N27" s="6" t="n">
-        <v>23427</v>
+        <v>23977</v>
       </c>
     </row>
     <row r="28">
@@ -3228,40 +3228,40 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>17216</v>
+        <v>17172</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>4103</v>
+        <v>3919</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>16786</v>
+        <v>16774</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>11807</v>
+        <v>12291</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>7637</v>
+        <v>7766</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>6879</v>
+        <v>6004</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>10661</v>
+        <v>10949</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>24480</v>
+        <v>24349</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>27972</v>
+        <v>28122</v>
       </c>
       <c r="L30" s="6" t="n">
-        <v>13313</v>
+        <v>13421</v>
       </c>
       <c r="M30" s="6" t="n">
-        <v>31938</v>
+        <v>32419</v>
       </c>
       <c r="N30" s="6" t="n">
-        <v>40646</v>
+        <v>41324</v>
       </c>
     </row>
     <row r="31">
@@ -3272,40 +3272,40 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>34567</v>
+        <v>33833</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>15460</v>
+        <v>14667</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>34459</v>
+        <v>33733</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>30745</v>
+        <v>30701</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>19588</v>
+        <v>19805</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>19061</v>
+        <v>18237</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>24747</v>
+        <v>25067</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>39636</v>
+        <v>40044</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>49484</v>
+        <v>49284</v>
       </c>
       <c r="L31" s="6" t="n">
-        <v>29849</v>
+        <v>29612</v>
       </c>
       <c r="M31" s="6" t="n">
-        <v>55077</v>
+        <v>55102</v>
       </c>
       <c r="N31" s="6" t="n">
-        <v>64328</v>
+        <v>64781</v>
       </c>
     </row>
     <row r="32">
@@ -3408,40 +3408,40 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>25815</v>
+        <v>26573</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>8537</v>
+        <v>9039</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>8304</v>
+        <v>8411</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>37095</v>
+        <v>37617</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>17961</v>
+        <v>17379</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>5813</v>
+        <v>5753</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>959</v>
+        <v>967</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>23960</v>
+        <v>24627</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>48676</v>
+        <v>48198</v>
       </c>
       <c r="L34" s="6" t="n">
-        <v>17202</v>
+        <v>17217</v>
       </c>
       <c r="M34" s="6" t="n">
-        <v>11154</v>
+        <v>11125</v>
       </c>
       <c r="N34" s="6" t="n">
-        <v>66758</v>
+        <v>68063</v>
       </c>
     </row>
     <row r="35">
@@ -3452,40 +3452,40 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>45234</v>
+        <v>47011</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>20968</v>
+        <v>21922</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>20735</v>
+        <v>20765</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>53659</v>
+        <v>53454</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>32188</v>
+        <v>31664</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>16457</v>
+        <v>16621</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>9035</v>
+        <v>9189</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>38176</v>
+        <v>38349</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>72767</v>
+        <v>72426</v>
       </c>
       <c r="L35" s="6" t="n">
-        <v>34548</v>
+        <v>34023</v>
       </c>
       <c r="M35" s="6" t="n">
-        <v>25966</v>
+        <v>25182</v>
       </c>
       <c r="N35" s="6" t="n">
-        <v>87991</v>
+        <v>88049</v>
       </c>
     </row>
     <row r="36">
@@ -3588,40 +3588,40 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>128715</v>
+        <v>128855</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>63226</v>
+        <v>61753</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>116457</v>
+        <v>117956</v>
       </c>
       <c r="F38" s="6" t="n">
-        <v>118309</v>
+        <v>119411</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>55026</v>
+        <v>54836</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>61687</v>
+        <v>58713</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>75091</v>
+        <v>75251</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>127752</v>
+        <v>129943</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>192497</v>
+        <v>191224</v>
       </c>
       <c r="L38" s="6" t="n">
-        <v>129533</v>
+        <v>131336</v>
       </c>
       <c r="M38" s="6" t="n">
-        <v>203141</v>
+        <v>201459</v>
       </c>
       <c r="N38" s="6" t="n">
-        <v>254339</v>
+        <v>256688</v>
       </c>
     </row>
     <row r="39">
@@ -3632,40 +3632,40 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>170856</v>
+        <v>170867</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>92433</v>
+        <v>92878</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>155707</v>
+        <v>153081</v>
       </c>
       <c r="F39" s="6" t="n">
-        <v>162199</v>
+        <v>161966</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>82571</v>
+        <v>81500</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>90696</v>
+        <v>88871</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>104947</v>
+        <v>104040</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>161606</v>
+        <v>163316</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>242309</v>
+        <v>244672</v>
       </c>
       <c r="L39" s="6" t="n">
-        <v>174505</v>
+        <v>174405</v>
       </c>
       <c r="M39" s="6" t="n">
-        <v>249938</v>
+        <v>248263</v>
       </c>
       <c r="N39" s="6" t="n">
-        <v>306404</v>
+        <v>311134</v>
       </c>
     </row>
     <row r="40">
